--- a/Data_analysis/Down_timeproject_data.xlsx
+++ b/Data_analysis/Down_timeproject_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7375750-2BBF-4B8D-830F-77ECF832809D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B12ABA-10B1-4207-955B-A1232D196E6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5184,8 +5184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5607,7 +5607,7 @@
         <v>42923</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>42</v>
@@ -5817,7 +5817,7 @@
         <v>43046</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D23" s="76" t="s">
         <v>57</v>
@@ -6327,7 +6327,7 @@
         <v>43201</v>
       </c>
       <c r="C40" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D40" s="76" t="s">
         <v>85</v>
@@ -6987,7 +6987,7 @@
         <v>43339</v>
       </c>
       <c r="C62" s="76" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D62" s="76" t="s">
         <v>98</v>
@@ -7467,7 +7467,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D78" s="76" t="s">
         <v>115</v>
@@ -7647,7 +7647,7 @@
         <v>43456</v>
       </c>
       <c r="C84" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D84" s="76" t="s">
         <v>119</v>
@@ -7857,7 +7857,7 @@
         <v>43498</v>
       </c>
       <c r="C91" s="76" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D91" s="76" t="s">
         <v>129</v>
@@ -7887,7 +7887,7 @@
         <v>43499</v>
       </c>
       <c r="C92" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D92" s="76" t="s">
         <v>131</v>
@@ -8397,7 +8397,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="76" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D109" s="76" t="s">
         <v>85</v>
@@ -8667,7 +8667,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D118" s="89" t="s">
         <v>162</v>
@@ -8817,7 +8817,7 @@
         <v>43866</v>
       </c>
       <c r="C123" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D123" s="76" t="s">
         <v>143</v>
@@ -8847,7 +8847,7 @@
         <v>43867</v>
       </c>
       <c r="C124" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D124" s="76" t="s">
         <v>143</v>
@@ -8877,7 +8877,7 @@
         <v>43877</v>
       </c>
       <c r="C125" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D125" s="76" t="s">
         <v>143</v>
@@ -9057,7 +9057,7 @@
         <v>43959</v>
       </c>
       <c r="C131" s="76" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D131" s="76" t="s">
         <v>47</v>
@@ -9477,7 +9477,7 @@
         <v>44048</v>
       </c>
       <c r="C145" s="76" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D145" s="76" t="s">
         <v>190</v>
@@ -9507,7 +9507,7 @@
         <v>44048</v>
       </c>
       <c r="C146" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D146" s="76" t="s">
         <v>192</v>
@@ -9567,7 +9567,7 @@
         <v>44068</v>
       </c>
       <c r="C148" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D148" s="76" t="s">
         <v>196</v>
@@ -9627,7 +9627,7 @@
         <v>44080</v>
       </c>
       <c r="C150" s="76" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D150" s="76" t="s">
         <v>67</v>
@@ -9657,7 +9657,7 @@
         <v>44081</v>
       </c>
       <c r="C151" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D151" s="76" t="s">
         <v>201</v>
@@ -9717,7 +9717,7 @@
         <v>44088</v>
       </c>
       <c r="C153" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D153" s="76" t="s">
         <v>203</v>
@@ -9747,7 +9747,7 @@
         <v>44089</v>
       </c>
       <c r="C154" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D154" s="76" t="s">
         <v>203</v>
@@ -9777,7 +9777,7 @@
         <v>44091</v>
       </c>
       <c r="C155" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D155" s="76" t="s">
         <v>203</v>
@@ -9807,7 +9807,7 @@
         <v>44095</v>
       </c>
       <c r="C156" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D156" s="76" t="s">
         <v>205</v>
@@ -9837,7 +9837,7 @@
         <v>44100</v>
       </c>
       <c r="C157" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D157" s="76" t="s">
         <v>201</v>
@@ -9867,7 +9867,7 @@
         <v>44100</v>
       </c>
       <c r="C158" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D158" s="76" t="s">
         <v>85</v>
@@ -9987,7 +9987,7 @@
         <v>44158</v>
       </c>
       <c r="C162" s="76" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D162" s="76" t="s">
         <v>201</v>
